--- a/Artificiall_eye_ver00/UVA_AE_PROTOTYPE_BOM_ver01.xlsx
+++ b/Artificiall_eye_ver00/UVA_AE_PROTOTYPE_BOM_ver01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Artificial Eye\PCBdesign_sk\Artificiall_eye_ver00\Digikey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Artificial Eye\PCBdesign_sk\Artificiall_eye_ver00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1DEE68AF-761E-4A59-8B2E-03A75E8C1B5E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F2A2812B-3A27-45B4-9F26-B892D88142DC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1574,7 +1574,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
